--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_极光组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_极光组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>租客APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推送的总数量和未读数量，sql优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +933,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1218,18 +1230,38 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="20">
+        <v>42664</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="20">
+        <v>42664</v>
+      </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="20"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_极光组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_极光组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客账单性能优化（金融）测试</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +937,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1020,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="48.75" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1062,7 +1066,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="37"/>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="48.75" customHeight="1">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1104,7 +1108,7 @@
       <c r="S3" s="38"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="48.75" customHeight="1">
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1146,7 +1150,7 @@
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="48.75" customHeight="1">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1188,7 +1192,7 @@
       <c r="S5" s="38"/>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="48.75" customHeight="1">
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1230,7 +1234,7 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="36.75" customHeight="1">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1272,18 +1276,38 @@
       <c r="S7" s="40"/>
       <c r="T7" s="41"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="20">
+        <v>42663</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20">
+        <v>42663</v>
+      </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="20"/>
@@ -1294,7 +1318,7 @@
       <c r="S8" s="40"/>
       <c r="T8" s="41"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
